--- a/DateBase/orders/Thang_2024-9-23.xlsx
+++ b/DateBase/orders/Thang_2024-9-23.xlsx
@@ -445,6 +445,9 @@
       <c r="A2" t="str">
         <v>1</v>
       </c>
+      <c r="C2" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Thang_2024-9-23.xlsx
+++ b/DateBase/orders/Thang_2024-9-23.xlsx
@@ -448,6 +448,9 @@
       <c r="C2" t="str">
         <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
       </c>
+      <c r="F2" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -505,8 +508,8 @@
       <c r="F2" t="str">
         <v>0.00</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="str">
+        <v>01</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Thang_2024-9-23.xlsx
+++ b/DateBase/orders/Thang_2024-9-23.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -452,9 +452,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -509,7 +514,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01</v>
+        <v>010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Thang_2024-9-23.xlsx
+++ b/DateBase/orders/Thang_2024-9-23.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -445,21 +445,10 @@
       <c r="A2" t="str">
         <v>1</v>
       </c>
-      <c r="C2" t="str">
-        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
-      </c>
-      <c r="F2" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -513,8 +502,8 @@
       <c r="F2" t="str">
         <v>0.00</v>
       </c>
-      <c r="G2" t="str">
-        <v>010</v>
+      <c r="G2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Thang_2024-9-23.xlsx
+++ b/DateBase/orders/Thang_2024-9-23.xlsx
@@ -445,6 +445,9 @@
       <c r="A2" t="str">
         <v>1</v>
       </c>
+      <c r="C2" t="str">
+        <v>1_卡罗拉_Carola_Rosa rugosa Thunb.</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Thang_2024-9-23.xlsx
+++ b/DateBase/orders/Thang_2024-9-23.xlsx
@@ -448,6 +448,9 @@
       <c r="C2" t="str">
         <v>1_卡罗拉_Carola_Rosa rugosa Thunb.</v>
       </c>
+      <c r="F2" t="str">
+        <v>q</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -505,8 +508,8 @@
       <c r="F2" t="str">
         <v>0.00</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="str">
+        <v>0q</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Thang_2024-9-23.xlsx
+++ b/DateBase/orders/Thang_2024-9-23.xlsx
@@ -449,7 +449,7 @@
         <v>1_卡罗拉_Carola_Rosa rugosa Thunb.</v>
       </c>
       <c r="F2" t="str">
-        <v/>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -509,7 +509,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0</v>
+        <v>015</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Thang_2024-9-23.xlsx
+++ b/DateBase/orders/Thang_2024-9-23.xlsx
@@ -449,7 +449,7 @@
         <v>1_卡罗拉_Carola_Rosa rugosa Thunb.</v>
       </c>
       <c r="F2" t="str">
-        <v>q</v>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -509,7 +509,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0q</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Thang_2024-9-23.xlsx
+++ b/DateBase/orders/Thang_2024-9-23.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -452,9 +452,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="3">
+      <c r="C3" t="str">
+        <v>7_高原红_high plateau red_Rosa rugosa Thunb.</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -509,7 +514,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015</v>
+        <v>0150</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Thang_2024-9-23.xlsx
+++ b/DateBase/orders/Thang_2024-9-23.xlsx
@@ -456,6 +456,9 @@
       <c r="C3" t="str">
         <v>7_高原红_high plateau red_Rosa rugosa Thunb.</v>
       </c>
+      <c r="F3" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -514,7 +517,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0150</v>
+        <v>0151</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Thang_2024-9-23.xlsx
+++ b/DateBase/orders/Thang_2024-9-23.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -457,12 +457,17 @@
         <v>7_高原红_high plateau red_Rosa rugosa Thunb.</v>
       </c>
       <c r="F3" t="str">
-        <v>1</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="str">
+        <v>55_粉荔枝_pink ohara_Rosa rugosa Thunb.</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -517,7 +522,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0151</v>
+        <v>015130</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Thang_2024-9-23.xlsx
+++ b/DateBase/orders/Thang_2024-9-23.xlsx
@@ -464,6 +464,9 @@
       <c r="C4" t="str">
         <v>55_粉荔枝_pink ohara_Rosa rugosa Thunb.</v>
       </c>
+      <c r="F4" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -522,7 +525,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015130</v>
+        <v>015131</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Thang_2024-9-23.xlsx
+++ b/DateBase/orders/Thang_2024-9-23.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -465,12 +465,17 @@
         <v>55_粉荔枝_pink ohara_Rosa rugosa Thunb.</v>
       </c>
       <c r="F4" t="str">
-        <v>1</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="str">
+        <v>15_白荔枝_white ohara_Rosa rugosa Thunb.</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L5"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -525,7 +530,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015131</v>
+        <v>01513140</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Thang_2024-9-23.xlsx
+++ b/DateBase/orders/Thang_2024-9-23.xlsx
@@ -472,6 +472,9 @@
       <c r="C5" t="str">
         <v>15_白荔枝_white ohara_Rosa rugosa Thunb.</v>
       </c>
+      <c r="F5" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -530,7 +533,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01513140</v>
+        <v>01513141</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Thang_2024-9-23.xlsx
+++ b/DateBase/orders/Thang_2024-9-23.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -473,12 +473,17 @@
         <v>15_白荔枝_white ohara_Rosa rugosa Thunb.</v>
       </c>
       <c r="F5" t="str">
-        <v>1</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L6"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -533,7 +538,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01513141</v>
+        <v>0151314120</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Thang_2024-9-23.xlsx
+++ b/DateBase/orders/Thang_2024-9-23.xlsx
@@ -478,7 +478,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>3</v>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Thang_2024-9-23.xlsx
+++ b/DateBase/orders/Thang_2024-9-23.xlsx
@@ -453,6 +453,9 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <v>1</v>
+      </c>
       <c r="C3" t="str">
         <v>7_高原红_high plateau red_Rosa rugosa Thunb.</v>
       </c>
@@ -478,7 +481,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Thang_2024-9-23.xlsx
+++ b/DateBase/orders/Thang_2024-9-23.xlsx
@@ -464,6 +464,9 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <v>1</v>
+      </c>
       <c r="C4" t="str">
         <v>55_粉荔枝_pink ohara_Rosa rugosa Thunb.</v>
       </c>
@@ -472,6 +475,9 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <v>1</v>
+      </c>
       <c r="C5" t="str">
         <v>15_白荔枝_white ohara_Rosa rugosa Thunb.</v>
       </c>

--- a/DateBase/orders/Thang_2024-9-23.xlsx
+++ b/DateBase/orders/Thang_2024-9-23.xlsx
@@ -489,6 +489,9 @@
       <c r="A6" t="str">
         <v>2</v>
       </c>
+      <c r="C6" t="str">
+        <v>64_美琴_mikoto_Rosa rugosa Thunb.</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Thang_2024-9-23.xlsx
+++ b/DateBase/orders/Thang_2024-9-23.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -493,9 +493,14 @@
         <v>64_美琴_mikoto_Rosa rugosa Thunb.</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L7"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -550,7 +555,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0151314120</v>
+        <v>01513141200</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Thang_2024-9-23.xlsx
+++ b/DateBase/orders/Thang_2024-9-23.xlsx
@@ -497,6 +497,9 @@
       <c r="A7" t="str">
         <v>2</v>
       </c>
+      <c r="C7" t="str">
+        <v>56_粉爱神_pink cupid_Rosa rugosa Thunb.</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Thang_2024-9-23.xlsx
+++ b/DateBase/orders/Thang_2024-9-23.xlsx
@@ -500,6 +500,9 @@
       <c r="C7" t="str">
         <v>56_粉爱神_pink cupid_Rosa rugosa Thunb.</v>
       </c>
+      <c r="F7" t="str">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -558,7 +561,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01513141200</v>
+        <v>01513141209</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Thang_2024-9-23.xlsx
+++ b/DateBase/orders/Thang_2024-9-23.xlsx
@@ -492,6 +492,9 @@
       <c r="C6" t="str">
         <v>64_美琴_mikoto_Rosa rugosa Thunb.</v>
       </c>
+      <c r="F6" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -561,7 +564,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01513141209</v>
+        <v>01513141219</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Thang_2024-9-23.xlsx
+++ b/DateBase/orders/Thang_2024-9-23.xlsx
@@ -493,7 +493,7 @@
         <v>64_美琴_mikoto_Rosa rugosa Thunb.</v>
       </c>
       <c r="F6" t="str">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -564,7 +564,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01513141219</v>
+        <v>015131412129</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Thang_2024-9-23.xlsx
+++ b/DateBase/orders/Thang_2024-9-23.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -507,9 +507,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L8"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -564,7 +569,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015131412129</v>
+        <v>0151314121290</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Thang_2024-9-23.xlsx
+++ b/DateBase/orders/Thang_2024-9-23.xlsx
@@ -511,6 +511,9 @@
       <c r="A8" t="str">
         <v>2</v>
       </c>
+      <c r="C8" t="str">
+        <v>47_微光_shimmer_Rosa rugosa Thunb.</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Thang_2024-9-23.xlsx
+++ b/DateBase/orders/Thang_2024-9-23.xlsx
@@ -514,6 +514,9 @@
       <c r="C8" t="str">
         <v>47_微光_shimmer_Rosa rugosa Thunb.</v>
       </c>
+      <c r="F8" t="str">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -572,7 +575,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0151314121290</v>
+        <v>0151314121299</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Thang_2024-9-23.xlsx
+++ b/DateBase/orders/Thang_2024-9-23.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -518,9 +518,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L9"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -575,7 +580,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0151314121299</v>
+        <v>01513141212990</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Thang_2024-9-23.xlsx
+++ b/DateBase/orders/Thang_2024-9-23.xlsx
@@ -522,6 +522,9 @@
       <c r="A9" t="str">
         <v>2</v>
       </c>
+      <c r="C9" t="str">
+        <v>97_白色泡泡_white Bubbles_Rosa rugosa Thunb.</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Thang_2024-9-23.xlsx
+++ b/DateBase/orders/Thang_2024-9-23.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -526,9 +526,14 @@
         <v>97_白色泡泡_white Bubbles_Rosa rugosa Thunb.</v>
       </c>
     </row>
+    <row r="10">
+      <c r="C10" t="str">
+        <v>92_黄蝴蝶_Golden Vuvuzela/yellow butterfly_Rosa rugosa Thunb.</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L10"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -583,7 +588,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01513141212990</v>
+        <v>015131412129900</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Thang_2024-9-23.xlsx
+++ b/DateBase/orders/Thang_2024-9-23.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,13 +527,21 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="str">
+        <v>2</v>
+      </c>
       <c r="C10" t="str">
         <v>92_黄蝴蝶_Golden Vuvuzela/yellow butterfly_Rosa rugosa Thunb.</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -588,7 +596,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015131412129900</v>
+        <v>0151314121299000</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Thang_2024-9-23.xlsx
+++ b/DateBase/orders/Thang_2024-9-23.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -534,14 +534,9 @@
         <v>92_黄蝴蝶_Golden Vuvuzela/yellow butterfly_Rosa rugosa Thunb.</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L10"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -596,7 +591,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0151314121299000</v>
+        <v>015131412129900</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Thang_2024-9-23.xlsx
+++ b/DateBase/orders/Thang_2024-9-23.xlsx
@@ -525,6 +525,9 @@
       <c r="C9" t="str">
         <v>97_白色泡泡_white Bubbles_Rosa rugosa Thunb.</v>
       </c>
+      <c r="F9" t="str">
+        <v>7</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -591,7 +594,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015131412129900</v>
+        <v>015131412129970</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Thang_2024-9-23.xlsx
+++ b/DateBase/orders/Thang_2024-9-23.xlsx
@@ -536,6 +536,9 @@
       <c r="C10" t="str">
         <v>92_黄蝴蝶_Golden Vuvuzela/yellow butterfly_Rosa rugosa Thunb.</v>
       </c>
+      <c r="F10" t="str">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -594,7 +597,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015131412129970</v>
+        <v>015131412129977</v>
       </c>
     </row>
   </sheetData>
